--- a/ISRaD_data_files/Gandois_2016.xlsx
+++ b/ISRaD_data_files/Gandois_2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AGATHA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f0076db\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD9A8FD-13AF-9345-A062-D8DEEAAF1AE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA90163-6982-4E70-8356-67EC9ED498CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1207">
   <si>
     <t>entry_name</t>
   </si>
@@ -3986,12 +3986,12 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1204</v>
       </c>
@@ -4187,9 +4187,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1204</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1204</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1204</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1204</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1204</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1204</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1204</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1204</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1204</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1204</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1204</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1204</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1204</v>
       </c>
@@ -4487,9 +4487,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1204</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1204</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1204</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1204</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1204</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1204</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1204</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1204</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1204</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1204</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1204</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1204</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1204</v>
       </c>
@@ -5279,9 +5279,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1204</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1204</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1204</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1204</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1204</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1204</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1204</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1204</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1204</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1204</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1204</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1204</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1204</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1204</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1204</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1204</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1204</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1204</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1204</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1204</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1204</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1204</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1204</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1204</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1204</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1204</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1204</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1204</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1204</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1204</v>
       </c>
@@ -6975,9 +6975,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1204</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1204</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1204</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1204</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1204</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1204</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1204</v>
       </c>
@@ -8142,12 +8142,12 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1204</v>
       </c>
@@ -8442,6 +8442,9 @@
       <c r="J4" t="s">
         <v>748</v>
       </c>
+      <c r="K4" t="s">
+        <v>1055</v>
+      </c>
       <c r="L4" t="s">
         <v>368</v>
       </c>
@@ -8452,7 +8455,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1204</v>
       </c>
@@ -8480,6 +8483,9 @@
       <c r="J5" t="s">
         <v>753</v>
       </c>
+      <c r="K5" t="s">
+        <v>1055</v>
+      </c>
       <c r="L5" t="s">
         <v>355</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1204</v>
       </c>
@@ -8518,6 +8524,9 @@
       <c r="J6" t="s">
         <v>753</v>
       </c>
+      <c r="K6" t="s">
+        <v>1055</v>
+      </c>
       <c r="L6" t="s">
         <v>362</v>
       </c>
@@ -8528,7 +8537,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1204</v>
       </c>
@@ -8556,6 +8565,9 @@
       <c r="J7" t="s">
         <v>753</v>
       </c>
+      <c r="K7" t="s">
+        <v>1055</v>
+      </c>
       <c r="L7" t="s">
         <v>355</v>
       </c>
@@ -8566,7 +8578,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1204</v>
       </c>
@@ -8594,6 +8606,9 @@
       <c r="J8" t="s">
         <v>753</v>
       </c>
+      <c r="K8" t="s">
+        <v>1055</v>
+      </c>
       <c r="L8" t="s">
         <v>355</v>
       </c>
@@ -8604,7 +8619,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1204</v>
       </c>
@@ -8632,6 +8647,9 @@
       <c r="J9" t="s">
         <v>753</v>
       </c>
+      <c r="K9" t="s">
+        <v>1055</v>
+      </c>
       <c r="L9" t="s">
         <v>362</v>
       </c>
@@ -8642,7 +8660,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1204</v>
       </c>
@@ -8670,6 +8688,9 @@
       <c r="J10" t="s">
         <v>753</v>
       </c>
+      <c r="K10" t="s">
+        <v>1055</v>
+      </c>
       <c r="L10" t="s">
         <v>362</v>
       </c>
@@ -8680,7 +8701,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1204</v>
       </c>
@@ -8708,6 +8729,9 @@
       <c r="J11" t="s">
         <v>748</v>
       </c>
+      <c r="K11" t="s">
+        <v>1055</v>
+      </c>
       <c r="L11" t="s">
         <v>368</v>
       </c>
@@ -8718,7 +8742,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1204</v>
       </c>
@@ -8746,6 +8770,9 @@
       <c r="J12" t="s">
         <v>748</v>
       </c>
+      <c r="K12" t="s">
+        <v>1055</v>
+      </c>
       <c r="L12" t="s">
         <v>368</v>
       </c>
@@ -8756,7 +8783,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1204</v>
       </c>
@@ -8783,6 +8810,9 @@
       </c>
       <c r="J13" t="s">
         <v>748</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1055</v>
       </c>
       <c r="L13" t="s">
         <v>368</v>
@@ -8806,9 +8836,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9035,7 +9065,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -9259,7 +9289,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -9444,9 +9474,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9547,7 +9577,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -9639,7 +9669,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -9704,9 +9734,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>940</v>
       </c>
@@ -9858,7 +9888,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -10010,7 +10040,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="L3" t="s">
         <v>992</v>
       </c>
@@ -10033,7 +10063,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>997</v>
       </c>
@@ -10182,7 +10212,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1033</v>
       </c>
@@ -10313,7 +10343,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1067</v>
       </c>
@@ -10426,7 +10456,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1096</v>
       </c>
@@ -10503,7 +10533,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1116</v>
       </c>
@@ -10574,7 +10604,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1133</v>
       </c>
@@ -10630,7 +10660,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1151</v>
       </c>
@@ -10668,7 +10698,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>1162</v>
       </c>
@@ -10697,7 +10727,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>1169</v>
       </c>
@@ -10717,7 +10747,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>1175</v>
       </c>
@@ -10734,7 +10764,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>1180</v>
       </c>
@@ -10748,7 +10778,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>1184</v>
       </c>
@@ -10762,7 +10792,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Z16" t="s">
         <v>1188</v>
       </c>
@@ -10773,7 +10803,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="17" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT17" t="s">
         <v>1191</v>
       </c>
@@ -10781,7 +10811,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="18" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT18" t="s">
         <v>1193</v>
       </c>
@@ -10789,7 +10819,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="19" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT19" t="s">
         <v>1195</v>
       </c>
@@ -10797,7 +10827,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="20" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT20" t="s">
         <v>1197</v>
       </c>
@@ -10805,7 +10835,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="21" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT21" t="s">
         <v>1199</v>
       </c>
@@ -10813,7 +10843,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT22" t="s">
         <v>1201</v>
       </c>
@@ -10821,7 +10851,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="23" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AU23" t="s">
         <v>1203</v>
       </c>
